--- a/outputs-HGR-r202/g__TF01-11.xlsx
+++ b/outputs-HGR-r202/g__TF01-11.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -641,143 +641,143 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT26493.fa</t>
+          <t>even_MAG-GUT24472.fa</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.03612830862921235</v>
+        <v>0.01531176173884405</v>
       </c>
       <c r="C6" t="n">
-        <v>0.009022346600462245</v>
+        <v>0.01169384212675214</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0003430733792496278</v>
+        <v>0.9678213247117801</v>
       </c>
       <c r="E6" t="n">
-        <v>2.941724085719145e-08</v>
+        <v>4.187030962602999e-08</v>
       </c>
       <c r="F6" t="n">
-        <v>0.01024484097882853</v>
+        <v>0.005071453713230186</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9442614009950063</v>
+        <v>0.0001015758390839409</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9442614009950063</v>
+        <v>0.9678213247117801</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>s__TF01-11 sp003529475</t>
+          <t>s__TF01-11 sp001916135</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>s__TF01-11 sp003529475</t>
+          <t>s__TF01-11 sp001916135</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT29885.fa</t>
+          <t>even_MAG-GUT26493.fa</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1206024891593383</v>
+        <v>0.03612830862921235</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8555326796670255</v>
+        <v>0.009022346600462245</v>
       </c>
       <c r="D7" t="n">
-        <v>0.02053781728584161</v>
+        <v>0.0003430733792496278</v>
       </c>
       <c r="E7" t="n">
-        <v>2.314550019022972e-05</v>
+        <v>2.941724085719145e-08</v>
       </c>
       <c r="F7" t="n">
-        <v>0.003176025695275386</v>
+        <v>0.01024484097882853</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0001278426923290387</v>
+        <v>0.9442614009950063</v>
       </c>
       <c r="H7" t="n">
-        <v>0.8555326796670255</v>
+        <v>0.9442614009950063</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>s__TF01-11 sp001414325</t>
+          <t>s__TF01-11 sp003529475</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>s__TF01-11 sp001414325</t>
+          <t>s__TF01-11 sp003529475</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT30439.fa</t>
+          <t>even_MAG-GUT29885.fa</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.04048748902622689</v>
+        <v>0.1206024891593383</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01368506745883814</v>
+        <v>0.8555326796670255</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0003728124754689691</v>
+        <v>0.02053781728584161</v>
       </c>
       <c r="E8" t="n">
-        <v>5.989243573291369e-08</v>
+        <v>2.314550019022972e-05</v>
       </c>
       <c r="F8" t="n">
-        <v>0.003774643620495761</v>
+        <v>0.003176025695275386</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9416799275265346</v>
+        <v>0.0001278426923290387</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9416799275265346</v>
+        <v>0.8555326796670255</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>s__TF01-11 sp003529475</t>
+          <t>s__TF01-11 sp001414325</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>s__TF01-11 sp003529475</t>
+          <t>s__TF01-11 sp001414325</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT30479.fa</t>
+          <t>even_MAG-GUT30439.fa</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.04219590166533337</v>
+        <v>0.04048748902622689</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01754945538444791</v>
+        <v>0.01368506745883814</v>
       </c>
       <c r="D9" t="n">
-        <v>0.001719350675003326</v>
+        <v>0.0003728124754689691</v>
       </c>
       <c r="E9" t="n">
-        <v>4.593778785497178e-06</v>
+        <v>5.989243573291369e-08</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0014169664431331</v>
+        <v>0.003774643620495761</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9371137320532967</v>
+        <v>0.9416799275265346</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9371137320532967</v>
+        <v>0.9416799275265346</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -793,29 +793,29 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT31533.fa</t>
+          <t>even_MAG-GUT30479.fa</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.04147708131370418</v>
+        <v>0.04219590166533337</v>
       </c>
       <c r="C10" t="n">
-        <v>0.008058539615150639</v>
+        <v>0.01754945538444791</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0005669593659597</v>
+        <v>0.001719350675003326</v>
       </c>
       <c r="E10" t="n">
-        <v>1.326623276884565e-08</v>
+        <v>4.593778785497178e-06</v>
       </c>
       <c r="F10" t="n">
-        <v>0.003380040286428507</v>
+        <v>0.0014169664431331</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9465173661525242</v>
+        <v>0.9371137320532967</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9465173661525242</v>
+        <v>0.9371137320532967</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -831,29 +831,29 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT374.fa</t>
+          <t>even_MAG-GUT31533.fa</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.04158940083428451</v>
+        <v>0.04147708131370418</v>
       </c>
       <c r="C11" t="n">
-        <v>0.004793592898282005</v>
+        <v>0.008058539615150639</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0002374055414577647</v>
+        <v>0.0005669593659597</v>
       </c>
       <c r="E11" t="n">
-        <v>3.498751785546601e-09</v>
+        <v>1.326623276884565e-08</v>
       </c>
       <c r="F11" t="n">
-        <v>0.008063472829902149</v>
+        <v>0.003380040286428507</v>
       </c>
       <c r="G11" t="n">
-        <v>0.9453161243973218</v>
+        <v>0.9465173661525242</v>
       </c>
       <c r="H11" t="n">
-        <v>0.9453161243973218</v>
+        <v>0.9465173661525242</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -869,67 +869,67 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT38177.fa</t>
+          <t>even_MAG-GUT374.fa</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.05005561061456228</v>
+        <v>0.04158940083428451</v>
       </c>
       <c r="C12" t="n">
-        <v>0.927740572575288</v>
+        <v>0.004793592898282005</v>
       </c>
       <c r="D12" t="n">
-        <v>0.01480677148975237</v>
+        <v>0.0002374055414577647</v>
       </c>
       <c r="E12" t="n">
-        <v>1.257431944875168e-05</v>
+        <v>3.498751785546601e-09</v>
       </c>
       <c r="F12" t="n">
-        <v>0.006920009076797375</v>
+        <v>0.008063472829902149</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0004644619241512491</v>
+        <v>0.9453161243973218</v>
       </c>
       <c r="H12" t="n">
-        <v>0.927740572575288</v>
+        <v>0.9453161243973218</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>s__TF01-11 sp001414325</t>
+          <t>s__TF01-11 sp003529475</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>s__TF01-11 sp001414325</t>
+          <t>s__TF01-11 sp003529475</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT39357.fa</t>
+          <t>even_MAG-GUT38177.fa</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.1344521996008432</v>
+        <v>0.05005561061456228</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8367535834037266</v>
+        <v>0.927740572575288</v>
       </c>
       <c r="D13" t="n">
-        <v>0.02200810942235231</v>
+        <v>0.01480677148975237</v>
       </c>
       <c r="E13" t="n">
-        <v>2.641585356949137e-05</v>
+        <v>1.257431944875168e-05</v>
       </c>
       <c r="F13" t="n">
-        <v>0.006682537402878278</v>
+        <v>0.006920009076797375</v>
       </c>
       <c r="G13" t="n">
-        <v>7.715431663023691e-05</v>
+        <v>0.0004644619241512491</v>
       </c>
       <c r="H13" t="n">
-        <v>0.8367535834037266</v>
+        <v>0.927740572575288</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -945,29 +945,29 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT57352.fa</t>
+          <t>even_MAG-GUT39357.fa</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.1262294152257564</v>
+        <v>0.1344521996008432</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8257545987952336</v>
+        <v>0.8367535834037266</v>
       </c>
       <c r="D14" t="n">
-        <v>0.03779423506038956</v>
+        <v>0.02200810942235231</v>
       </c>
       <c r="E14" t="n">
-        <v>2.295251964824259e-05</v>
+        <v>2.641585356949137e-05</v>
       </c>
       <c r="F14" t="n">
-        <v>0.00980642852697958</v>
+        <v>0.006682537402878278</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0003923698719926443</v>
+        <v>7.715431663023691e-05</v>
       </c>
       <c r="H14" t="n">
-        <v>0.8257545987952336</v>
+        <v>0.8367535834037266</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -983,67 +983,67 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT57680.fa</t>
+          <t>even_MAG-GUT57273.fa</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.05205195274400558</v>
+        <v>0.1418988909992449</v>
       </c>
       <c r="C15" t="n">
-        <v>0.01999158399173936</v>
+        <v>0.8212694805016549</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0004659394709686568</v>
+        <v>0.0273396136778147</v>
       </c>
       <c r="E15" t="n">
-        <v>1.345136551378005e-06</v>
+        <v>7.435882424382936e-06</v>
       </c>
       <c r="F15" t="n">
-        <v>0.007827899674827528</v>
+        <v>0.006947742885244733</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9196612789819075</v>
+        <v>0.002536836053616339</v>
       </c>
       <c r="H15" t="n">
-        <v>0.9196612789819075</v>
+        <v>0.8212694805016549</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>s__TF01-11 sp003529475</t>
+          <t>s__TF01-11 sp001414325</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>s__TF01-11 sp003529475</t>
+          <t>s__TF01-11 sp001414325</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT73422.fa</t>
+          <t>even_MAG-GUT57352.fa</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.05907475078620365</v>
+        <v>0.1262294152257564</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9145678395859278</v>
+        <v>0.8257545987952336</v>
       </c>
       <c r="D16" t="n">
-        <v>0.02136905878908618</v>
+        <v>0.03779423506038956</v>
       </c>
       <c r="E16" t="n">
-        <v>6.723897782382406e-05</v>
+        <v>2.295251964824259e-05</v>
       </c>
       <c r="F16" t="n">
-        <v>0.004822930384194788</v>
+        <v>0.00980642852697958</v>
       </c>
       <c r="G16" t="n">
-        <v>9.818147676380068e-05</v>
+        <v>0.0003923698719926443</v>
       </c>
       <c r="H16" t="n">
-        <v>0.9145678395859278</v>
+        <v>0.8257545987952336</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -1059,36 +1059,150 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
+          <t>even_MAG-GUT57680.fa</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.05205195274400558</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.01999158399173936</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.0004659394709686568</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1.345136551378005e-06</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.007827899674827528</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.9196612789819075</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.9196612789819075</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>s__TF01-11 sp003529475</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>s__TF01-11 sp003529475</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT60850.fa</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.033493771393333</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.008120952296983465</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.0008901904168257951</v>
+      </c>
+      <c r="E18" t="n">
+        <v>6.325533014593922e-08</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.002742552609715729</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.9547524700278119</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.9547524700278119</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>s__TF01-11 sp003529475</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>s__TF01-11 sp003529475</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT73422.fa</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.05907475078620365</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.9145678395859278</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.02136905878908618</v>
+      </c>
+      <c r="E19" t="n">
+        <v>6.723897782382406e-05</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.004822930384194788</v>
+      </c>
+      <c r="G19" t="n">
+        <v>9.818147676380068e-05</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.9145678395859278</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>s__TF01-11 sp001414325</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>s__TF01-11 sp001414325</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
           <t>even_MAG-GUT8851.fa</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="B20" t="n">
         <v>0.03958375327906492</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C20" t="n">
         <v>0.01879193526916806</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D20" t="n">
         <v>0.001087830991818035</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E20" t="n">
         <v>6.68089801996191e-07</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F20" t="n">
         <v>0.001645693350716953</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G20" t="n">
         <v>0.9388901190194301</v>
       </c>
-      <c r="H17" t="n">
+      <c r="H20" t="n">
         <v>0.9388901190194301</v>
       </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>s__TF01-11 sp003529475</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>s__TF01-11 sp003529475</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
         <is>
           <t>s__TF01-11 sp003529475</t>
         </is>

--- a/outputs-HGR-r202/g__TF01-11.xlsx
+++ b/outputs-HGR-r202/g__TF01-11.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,6 +480,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -513,6 +518,11 @@
           <t>s__TF01-11 sp001414325</t>
         </is>
       </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>s__TF01-11 sp001414325</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -546,6 +556,11 @@
           <t>s__TF01-11 sp003529475</t>
         </is>
       </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>s__TF01-11 sp003529475</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -579,6 +594,11 @@
           <t>s__TF01-11 sp001414325</t>
         </is>
       </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>s__TF01-11 sp001414325</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -612,6 +632,11 @@
           <t>s__TF01-11 sp003529475</t>
         </is>
       </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>s__TF01-11 sp003529475</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -645,6 +670,11 @@
           <t>s__TF01-11 sp001916135</t>
         </is>
       </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>s__TF01-11 sp001916135</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -678,6 +708,11 @@
           <t>s__TF01-11 sp003529475</t>
         </is>
       </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>s__TF01-11 sp003529475</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -711,6 +746,11 @@
           <t>s__TF01-11 sp001414325</t>
         </is>
       </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>s__TF01-11 sp001414325</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -744,6 +784,11 @@
           <t>s__TF01-11 sp003529475</t>
         </is>
       </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>s__TF01-11 sp003529475</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -777,6 +822,11 @@
           <t>s__TF01-11 sp003529475</t>
         </is>
       </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>s__TF01-11 sp003529475</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -810,6 +860,11 @@
           <t>s__TF01-11 sp003529475</t>
         </is>
       </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>s__TF01-11 sp003529475</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -843,6 +898,11 @@
           <t>s__TF01-11 sp003529475</t>
         </is>
       </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>s__TF01-11 sp003529475</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -876,6 +936,11 @@
           <t>s__TF01-11 sp001414325</t>
         </is>
       </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>s__TF01-11 sp001414325</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -909,6 +974,11 @@
           <t>s__TF01-11 sp001414325</t>
         </is>
       </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>s__TF01-11 sp001414325</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -942,6 +1012,11 @@
           <t>s__TF01-11 sp001414325</t>
         </is>
       </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>s__TF01-11 sp001414325</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -975,6 +1050,11 @@
           <t>s__TF01-11 sp001414325</t>
         </is>
       </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>s__TF01-11 sp001414325</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -1008,6 +1088,11 @@
           <t>s__TF01-11 sp003529475</t>
         </is>
       </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>s__TF01-11 sp003529475</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1041,6 +1126,11 @@
           <t>s__TF01-11 sp003529475</t>
         </is>
       </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>s__TF01-11 sp003529475</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1074,6 +1164,11 @@
           <t>s__TF01-11 sp001414325</t>
         </is>
       </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>s__TF01-11 sp001414325</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1103,6 +1198,11 @@
         <v>0.9388901190194301</v>
       </c>
       <c r="I20" t="inlineStr">
+        <is>
+          <t>s__TF01-11 sp003529475</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
         <is>
           <t>s__TF01-11 sp003529475</t>
         </is>

--- a/outputs-HGR-r202/g__TF01-11.xlsx
+++ b/outputs-HGR-r202/g__TF01-11.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -907,29 +907,29 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT38177.fa</t>
+          <t>even_MAG-GUT39357.fa</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.05005561061456228</v>
+        <v>0.1344521996008432</v>
       </c>
       <c r="C13" t="n">
-        <v>0.927740572575288</v>
+        <v>0.8367535834037266</v>
       </c>
       <c r="D13" t="n">
-        <v>0.01480677148975237</v>
+        <v>0.02200810942235231</v>
       </c>
       <c r="E13" t="n">
-        <v>1.257431944875168e-05</v>
+        <v>2.641585356949137e-05</v>
       </c>
       <c r="F13" t="n">
-        <v>0.006920009076797375</v>
+        <v>0.006682537402878278</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0004644619241512491</v>
+        <v>7.715431663023691e-05</v>
       </c>
       <c r="H13" t="n">
-        <v>0.927740572575288</v>
+        <v>0.8367535834037266</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -945,29 +945,29 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT39357.fa</t>
+          <t>even_MAG-GUT57273.fa</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.1344521996008432</v>
+        <v>0.1418988909992449</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8367535834037266</v>
+        <v>0.8212694805016549</v>
       </c>
       <c r="D14" t="n">
-        <v>0.02200810942235231</v>
+        <v>0.0273396136778147</v>
       </c>
       <c r="E14" t="n">
-        <v>2.641585356949137e-05</v>
+        <v>7.435882424382936e-06</v>
       </c>
       <c r="F14" t="n">
-        <v>0.006682537402878278</v>
+        <v>0.006947742885244733</v>
       </c>
       <c r="G14" t="n">
-        <v>7.715431663023691e-05</v>
+        <v>0.002536836053616339</v>
       </c>
       <c r="H14" t="n">
-        <v>0.8367535834037266</v>
+        <v>0.8212694805016549</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -983,29 +983,29 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT57273.fa</t>
+          <t>even_MAG-GUT57352.fa</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.1418988909992449</v>
+        <v>0.1262294152257564</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8212694805016549</v>
+        <v>0.8257545987952336</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0273396136778147</v>
+        <v>0.03779423506038956</v>
       </c>
       <c r="E15" t="n">
-        <v>7.435882424382936e-06</v>
+        <v>2.295251964824259e-05</v>
       </c>
       <c r="F15" t="n">
-        <v>0.006947742885244733</v>
+        <v>0.00980642852697958</v>
       </c>
       <c r="G15" t="n">
-        <v>0.002536836053616339</v>
+        <v>0.0003923698719926443</v>
       </c>
       <c r="H15" t="n">
-        <v>0.8212694805016549</v>
+        <v>0.8257545987952336</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -1021,67 +1021,67 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT57352.fa</t>
+          <t>even_MAG-GUT57680.fa</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.1262294152257564</v>
+        <v>0.05205195274400558</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8257545987952336</v>
+        <v>0.01999158399173936</v>
       </c>
       <c r="D16" t="n">
-        <v>0.03779423506038956</v>
+        <v>0.0004659394709686568</v>
       </c>
       <c r="E16" t="n">
-        <v>2.295251964824259e-05</v>
+        <v>1.345136551378005e-06</v>
       </c>
       <c r="F16" t="n">
-        <v>0.00980642852697958</v>
+        <v>0.007827899674827528</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0003923698719926443</v>
+        <v>0.9196612789819075</v>
       </c>
       <c r="H16" t="n">
-        <v>0.8257545987952336</v>
+        <v>0.9196612789819075</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>s__TF01-11 sp001414325</t>
+          <t>s__TF01-11 sp003529475</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>s__TF01-11 sp001414325</t>
+          <t>s__TF01-11 sp003529475</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT57680.fa</t>
+          <t>even_MAG-GUT60850.fa</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.05205195274400558</v>
+        <v>0.033493771393333</v>
       </c>
       <c r="C17" t="n">
-        <v>0.01999158399173936</v>
+        <v>0.008120952296983465</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0004659394709686568</v>
+        <v>0.0008901904168257951</v>
       </c>
       <c r="E17" t="n">
-        <v>1.345136551378005e-06</v>
+        <v>6.325533014593922e-08</v>
       </c>
       <c r="F17" t="n">
-        <v>0.007827899674827528</v>
+        <v>0.002742552609715729</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9196612789819075</v>
+        <v>0.9547524700278119</v>
       </c>
       <c r="H17" t="n">
-        <v>0.9196612789819075</v>
+        <v>0.9547524700278119</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -1097,112 +1097,74 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT60850.fa</t>
+          <t>even_MAG-GUT73422.fa</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.033493771393333</v>
+        <v>0.05907475078620365</v>
       </c>
       <c r="C18" t="n">
-        <v>0.008120952296983465</v>
+        <v>0.9145678395859278</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0008901904168257951</v>
+        <v>0.02136905878908618</v>
       </c>
       <c r="E18" t="n">
-        <v>6.325533014593922e-08</v>
+        <v>6.723897782382406e-05</v>
       </c>
       <c r="F18" t="n">
-        <v>0.002742552609715729</v>
+        <v>0.004822930384194788</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9547524700278119</v>
+        <v>9.818147676380068e-05</v>
       </c>
       <c r="H18" t="n">
-        <v>0.9547524700278119</v>
+        <v>0.9145678395859278</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>s__TF01-11 sp003529475</t>
+          <t>s__TF01-11 sp001414325</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>s__TF01-11 sp003529475</t>
+          <t>s__TF01-11 sp001414325</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT73422.fa</t>
+          <t>even_MAG-GUT8851.fa</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.05907475078620365</v>
+        <v>0.03958375327906492</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9145678395859278</v>
+        <v>0.01879193526916806</v>
       </c>
       <c r="D19" t="n">
-        <v>0.02136905878908618</v>
+        <v>0.001087830991818035</v>
       </c>
       <c r="E19" t="n">
-        <v>6.723897782382406e-05</v>
+        <v>6.68089801996191e-07</v>
       </c>
       <c r="F19" t="n">
-        <v>0.004822930384194788</v>
+        <v>0.001645693350716953</v>
       </c>
       <c r="G19" t="n">
-        <v>9.818147676380068e-05</v>
+        <v>0.9388901190194301</v>
       </c>
       <c r="H19" t="n">
-        <v>0.9145678395859278</v>
+        <v>0.9388901190194301</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>s__TF01-11 sp001414325</t>
+          <t>s__TF01-11 sp003529475</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
-        <is>
-          <t>s__TF01-11 sp001414325</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT8851.fa</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>0.03958375327906492</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.01879193526916806</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0.001087830991818035</v>
-      </c>
-      <c r="E20" t="n">
-        <v>6.68089801996191e-07</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0.001645693350716953</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0.9388901190194301</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0.9388901190194301</v>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>s__TF01-11 sp003529475</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
         <is>
           <t>s__TF01-11 sp003529475</t>
         </is>
